--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jwang\work\ams\ams\cases\ieee14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34001AE8-8A73-42E0-B236-EE8B0E1DA1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A66890-42B0-344C-888D-2866198A6B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36480" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="Area" sheetId="7" r:id="rId8"/>
     <sheet name="GCost" sheetId="8" r:id="rId9"/>
     <sheet name="Region" sheetId="10" r:id="rId10"/>
-    <sheet name="TimeSlot" sheetId="13" r:id="rId11"/>
+    <sheet name="EDTSlot" sheetId="13" r:id="rId11"/>
+    <sheet name="UCTSlot" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="278">
   <si>
     <t>uid</t>
   </si>
@@ -798,75 +799,118 @@
   </si>
   <si>
     <t>for UC, ED</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1, 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.005, 1.005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.01, 1.01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.015, 1.015</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.02, 1.02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.025, 1.025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLOT1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLOT2</t>
-  </si>
-  <si>
-    <t>SLOT3</t>
-  </si>
-  <si>
-    <t>SLOT4</t>
-  </si>
-  <si>
-    <t>SLOT5</t>
-  </si>
-  <si>
-    <t>SLOT6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>td1</t>
+  </si>
+  <si>
+    <t>td2</t>
+  </si>
+  <si>
+    <t>1.005, 1.005</t>
+  </si>
+  <si>
+    <t>EDT1</t>
+  </si>
+  <si>
+    <t>EDT2</t>
+  </si>
+  <si>
+    <t>EDT3</t>
+  </si>
+  <si>
+    <t>EDT4</t>
+  </si>
+  <si>
+    <t>EDT5</t>
+  </si>
+  <si>
+    <t>EDT6</t>
+  </si>
+  <si>
+    <t>UCT1</t>
+  </si>
+  <si>
+    <t>UCT2</t>
+  </si>
+  <si>
+    <t>UCT3</t>
+  </si>
+  <si>
+    <t>UCT4</t>
+  </si>
+  <si>
+    <t>UCT5</t>
+  </si>
+  <si>
+    <t>UCT6</t>
+  </si>
+  <si>
+    <t>dt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -874,33 +918,33 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -967,29 +1011,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,9 +1389,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1409,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1373,7 +1426,7 @@
       <c r="F2" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1386,9 +1439,9 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1431,7 +1484,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1439,15 +1492,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD46B62-3884-454B-83D5-13A7DC1C4BB6}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1457,75 +1510,210 @@
       <c r="C1" s="6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>262</v>
+      <c r="B2" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>263</v>
+      <c r="B3" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>264</v>
+      <c r="B4" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>265</v>
+      <c r="B5" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>266</v>
+      <c r="B6" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>267</v>
+      <c r="B7" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>261</v>
       </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8DE934-58E4-5047-A795-90496D563932}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1535,12 +1723,12 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1672,7 +1860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +1904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1760,7 +1948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1848,7 +2036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1892,7 +2080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1936,7 +2124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1980,7 +2168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2024,7 +2212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -2112,7 +2300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2156,7 +2344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2201,7 +2389,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
@@ -2212,18 +2400,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="20" max="20" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2284,8 +2472,14 @@
       <c r="T1" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2343,8 +2537,14 @@
       <c r="T2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" s="1">
+        <v>30</v>
+      </c>
+      <c r="V2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2402,8 +2602,14 @@
       <c r="T3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3" s="1">
+        <v>45</v>
+      </c>
+      <c r="V3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2461,8 +2667,14 @@
       <c r="T4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U4" s="1">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2520,9 +2732,15 @@
       <c r="T5" s="1">
         <v>1</v>
       </c>
+      <c r="U5" s="1">
+        <v>35</v>
+      </c>
+      <c r="V5" s="1">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:S5" numberStoredAsText="1"/>
@@ -2532,18 +2750,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="21" max="21" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2607,8 +2825,14 @@
       <c r="U1" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V1" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2669,9 +2893,15 @@
       <c r="U2" s="8">
         <v>1</v>
       </c>
+      <c r="V2" s="11">
+        <v>50</v>
+      </c>
+      <c r="W2" s="11">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:T2" numberStoredAsText="1"/>
@@ -2685,9 +2915,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2722,7 +2952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2757,7 +2987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2792,7 +3022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2827,7 +3057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2862,7 +3092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2897,7 +3127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2932,7 +3162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2967,7 +3197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3002,7 +3232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3037,7 +3267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3072,7 +3302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3108,7 +3338,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K12" numberStoredAsText="1"/>
@@ -3124,9 +3354,9 @@
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3433,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3271,7 +3501,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3339,7 +3569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3407,7 +3637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3475,7 +3705,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3543,7 +3773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3611,7 +3841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3679,7 +3909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3747,7 +3977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3815,7 +4045,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3883,7 +4113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3951,7 +4181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4019,7 +4249,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -4087,7 +4317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -4155,7 +4385,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -4223,7 +4453,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -4291,7 +4521,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -4359,7 +4589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -4427,7 +4657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -4495,7 +4725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -4564,7 +4794,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:X21" numberStoredAsText="1"/>
@@ -4578,9 +4808,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4612,7 +4842,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4644,7 +4874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4677,7 +4907,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
@@ -4693,9 +4923,9 @@
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4723,7 +4953,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4738,7 +4968,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
@@ -4751,12 +4981,12 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +5015,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4798,11 +5028,11 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>500</v>
       </c>
       <c r="G2" t="s">
         <v>239</v>
@@ -4814,7 +5044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4827,11 +5057,11 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="E3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>600</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -4843,7 +5073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4856,11 +5086,11 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="E4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>550</v>
       </c>
       <c r="G4" t="s">
         <v>243</v>
@@ -4872,7 +5102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4885,11 +5115,11 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="E5" s="1">
+        <v>800</v>
+      </c>
+      <c r="F5" s="1">
+        <v>400</v>
       </c>
       <c r="G5" t="s">
         <v>243</v>
@@ -4901,7 +5131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4914,11 +5144,11 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="E6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>700</v>
       </c>
       <c r="G6" t="s">
         <v>243</v>
@@ -4931,10 +5161,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 G1:I1 A2:I6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 G1:I1 A6:D6 A2:D2 G2:I2 A3:D3 G3:I3 A4:D4 G4:I4 A5:D5 G5:I5 G6:I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A66890-42B0-344C-888D-2866198A6B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5CD23-C26F-C548-83B3-7966589D74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="1540" windowWidth="21600" windowHeight="19000" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -792,9 +792,6 @@
     <t>IEEE 14-bus test case</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
     <t>R30</t>
   </si>
   <si>
@@ -872,6 +869,9 @@
   </si>
   <si>
     <t>dt</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -1026,23 +1026,23 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,7 +1420,7 @@
         <v>252</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD46B62-3884-454B-83D5-13A7DC1C4BB6}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,22 +1507,22 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>277</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>256</v>
+      <c r="B2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D2" s="1">
         <v>60</v>
@@ -1532,11 +1532,11 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>257</v>
+      <c r="B3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D3" s="1">
         <v>60</v>
@@ -1546,11 +1546,11 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>258</v>
+      <c r="B4" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="D4" s="1">
         <v>60</v>
@@ -1560,11 +1560,11 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>259</v>
+      <c r="B5" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="D5" s="1">
         <v>60</v>
@@ -1574,11 +1574,11 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>260</v>
+      <c r="B6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D6" s="1">
         <v>60</v>
@@ -1588,11 +1588,11 @@
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>261</v>
+      <c r="B7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D7" s="1">
         <v>60</v>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8DE934-58E4-5047-A795-90496D563932}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,22 +1621,22 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>277</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>256</v>
+      <c r="B2" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D2" s="1">
         <v>60</v>
@@ -1646,11 +1646,11 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>264</v>
+      <c r="B3" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="D3" s="1">
         <v>60</v>
@@ -1660,11 +1660,11 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>258</v>
+      <c r="B4" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="D4" s="1">
         <v>60</v>
@@ -1674,11 +1674,11 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>259</v>
+      <c r="B5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="D5" s="1">
         <v>60</v>
@@ -1688,11 +1688,11 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>260</v>
+      <c r="B6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D6" s="1">
         <v>60</v>
@@ -1702,11 +1702,11 @@
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>261</v>
+      <c r="B7" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D7" s="1">
         <v>60</v>
@@ -2469,14 +2469,14 @@
       <c r="S1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="U1" s="12" t="s">
+      <c r="T1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -2822,14 +2822,14 @@
       <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="U1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -2890,13 +2890,13 @@
       <c r="T2" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>1</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="10">
         <v>50</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>30</v>
       </c>
     </row>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5CD23-C26F-C548-83B3-7966589D74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F975BC3-D287-BC4C-8864-8FF8FB33FA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="1540" windowWidth="21600" windowHeight="19000" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F975BC3-D287-BC4C-8864-8FF8FB33FA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AFC3DD-B4A6-DF49-B870-26402AAE9341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -25,13 +25,18 @@
     <sheet name="Region" sheetId="10" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="13" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="14" r:id="rId12"/>
+    <sheet name="SFR" sheetId="16" r:id="rId13"/>
+    <sheet name="SFRCost" sheetId="17" r:id="rId14"/>
+    <sheet name="SR" sheetId="18" r:id="rId15"/>
+    <sheet name="NSR" sheetId="19" r:id="rId16"/>
+    <sheet name="RTEDCFG" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="294">
   <si>
     <t>uid</t>
   </si>
@@ -795,32 +800,28 @@
     <t>R30</t>
   </si>
   <si>
-    <t>for UC, ED</t>
+    <t>1, 1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1, 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.005, 1.005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.01, 1.01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.015, 1.015</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.02, 1.02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.025, 1.025</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>td1</t>
@@ -872,18 +873,76 @@
   </si>
   <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>RTEDCFG1</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>cru</t>
+  </si>
+  <si>
+    <t>crd</t>
+  </si>
+  <si>
+    <t>RCOST_1</t>
+  </si>
+  <si>
+    <t>RCOST_2</t>
+  </si>
+  <si>
+    <t>RCOST_3</t>
+  </si>
+  <si>
+    <t>RCOST_4</t>
+  </si>
+  <si>
+    <t>RCOST_5</t>
+  </si>
+  <si>
+    <t>SR1</t>
+  </si>
+  <si>
+    <t>SR2</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>NSR1</t>
+  </si>
+  <si>
+    <t>NSR2</t>
+  </si>
+  <si>
+    <t>SFR1</t>
+  </si>
+  <si>
+    <t>SFR2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,39 +1070,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1449,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,14 +1482,12 @@
       <c r="C2" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>254</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1484,7 +1545,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1508,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1519,10 +1580,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1">
         <v>60</v>
@@ -1533,10 +1594,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="1">
         <v>60</v>
@@ -1547,10 +1608,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1">
         <v>60</v>
@@ -1561,10 +1622,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1">
         <v>60</v>
@@ -1575,10 +1636,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1">
         <v>60</v>
@@ -1589,17 +1650,17 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="1">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1608,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8DE934-58E4-5047-A795-90496D563932}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1622,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1633,10 +1694,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1">
         <v>60</v>
@@ -1647,10 +1708,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1">
         <v>60</v>
@@ -1661,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1">
         <v>60</v>
@@ -1675,10 +1736,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1">
         <v>60</v>
@@ -1689,10 +1750,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1">
         <v>60</v>
@@ -1703,17 +1764,411 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="1">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DCD101-2671-4F48-972B-11EA0EF73763}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111A03E0-C10C-0D49-95E3-8985E6A9343A}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDE885-6D53-A84E-BDCB-CAB019D9A33F}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7A23E-CBBD-454F-8F4F-269AE72EF5B7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C550E806-D813-8D4B-AC59-65815710FA39}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2389,7 +2844,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
@@ -2402,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,10 +2928,10 @@
         <v>253</v>
       </c>
       <c r="U1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -2492,8 +2947,8 @@
       <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
+      <c r="E2" s="1">
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -2557,8 +3012,8 @@
       <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
-        <v>88</v>
+      <c r="E3" s="1">
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -2622,8 +3077,8 @@
       <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
+      <c r="E4" s="1">
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -2687,8 +3142,8 @@
       <c r="D5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
+      <c r="E5" s="1">
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -2740,10 +3195,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 A3:D5 A2:D2 F2:S2 F3:S5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2753,7 +3208,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2826,10 +3281,10 @@
         <v>253</v>
       </c>
       <c r="V1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -2845,8 +3300,8 @@
       <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
+      <c r="E2" s="1">
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -2901,10 +3356,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:T2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:T1 A2:D2 F2:T2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3338,7 +3793,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K12" numberStoredAsText="1"/>
@@ -4794,7 +5249,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:X21" numberStoredAsText="1"/>
@@ -4907,7 +5362,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
@@ -4968,7 +5423,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
@@ -5161,7 +5616,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D1 G1:I1 A6:D6 A2:D2 G2:I2 A3:D3 G3:I3 A4:D4 G4:I4 A5:D5 G5:I5 G6:I6" numberStoredAsText="1"/>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AFC3DD-B4A6-DF49-B870-26402AAE9341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01DC3D7-7B52-B643-AAE3-B075143DBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -29,14 +29,13 @@
     <sheet name="SFRCost" sheetId="17" r:id="rId14"/>
     <sheet name="SR" sheetId="18" r:id="rId15"/>
     <sheet name="NSR" sheetId="19" r:id="rId16"/>
-    <sheet name="RTEDCFG" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="292">
   <si>
     <t>uid</t>
   </si>
@@ -801,27 +800,27 @@
   </si>
   <si>
     <t>1, 1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.005, 1.005</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.01, 1.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.015, 1.015</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.02, 1.02</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.025, 1.025</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>td1</t>
@@ -869,13 +868,7 @@
     <t>UCT6</t>
   </si>
   <si>
-    <t>dt</t>
-  </si>
-  <si>
     <t>sd</t>
-  </si>
-  <si>
-    <t>RTEDCFG1</t>
   </si>
   <si>
     <t>du</t>
@@ -930,19 +923,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1070,41 +1056,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1487,7 +1472,7 @@
       <c r="F2" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1545,7 +1530,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1556,7 +1541,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,11 +1554,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="12" t="s">
         <v>275</v>
       </c>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1585,9 +1568,7 @@
       <c r="C2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="1">
-        <v>60</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1599,9 +1580,7 @@
       <c r="C3" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="1">
-        <v>60</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1613,9 +1592,7 @@
       <c r="C4" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="1">
-        <v>60</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1627,9 +1604,7 @@
       <c r="C5" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="1">
-        <v>60</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1641,9 +1616,7 @@
       <c r="C6" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="1">
-        <v>60</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1655,12 +1628,10 @@
       <c r="C7" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="1">
-        <v>60</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1670,7 +1641,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1683,11 +1654,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="12" t="s">
         <v>275</v>
       </c>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1699,9 +1668,7 @@
       <c r="C2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="1">
-        <v>60</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1713,9 +1680,7 @@
       <c r="C3" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="1">
-        <v>60</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1727,9 +1692,7 @@
       <c r="C4" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="1">
-        <v>60</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1741,9 +1704,7 @@
       <c r="C5" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="1">
-        <v>60</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1755,9 +1716,7 @@
       <c r="C6" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="1">
-        <v>60</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1769,12 +1728,10 @@
       <c r="C7" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="1">
-        <v>60</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1803,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
@@ -1817,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E2" s="7">
         <v>0.05</v>
@@ -1840,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E3" s="7">
         <v>0.05</v>
@@ -1874,104 +1831,104 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="C3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="C4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2004,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -2015,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E2" s="7">
         <v>5</v>
@@ -2035,13 +1992,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E3" s="7">
         <v>5</v>
@@ -2060,7 +2017,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2079,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -2090,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E2" s="7">
         <v>5</v>
@@ -2110,62 +2067,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" s="7">
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C550E806-D813-8D4B-AC59-65815710FA39}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2758,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
@@ -3195,7 +3109,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:S1 A3:D5 A2:D2 F2:S2 F3:S5" numberStoredAsText="1"/>
@@ -3356,7 +3270,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:T1 A2:D2 F2:T2" numberStoredAsText="1"/>
@@ -3793,7 +3707,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K12" numberStoredAsText="1"/>
@@ -5249,7 +5163,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:X21" numberStoredAsText="1"/>
@@ -5362,7 +5276,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
@@ -5423,7 +5337,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
@@ -5616,7 +5530,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D1 G1:I1 A6:D6 A2:D2 G2:I2 A3:D3 G3:I3 A4:D4 G4:I4 A5:D5 G5:I5 G6:I6" numberStoredAsText="1"/>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01DC3D7-7B52-B643-AAE3-B075143DBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE31FE1F-398B-1841-8090-1E6C624E3C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -25,17 +25,20 @@
     <sheet name="Region" sheetId="10" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="13" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="14" r:id="rId12"/>
-    <sheet name="SFR" sheetId="16" r:id="rId13"/>
-    <sheet name="SFRCost" sheetId="17" r:id="rId14"/>
-    <sheet name="SR" sheetId="18" r:id="rId15"/>
-    <sheet name="NSR" sheetId="19" r:id="rId16"/>
+    <sheet name="DCost" sheetId="20" r:id="rId13"/>
+    <sheet name="SFR" sheetId="16" r:id="rId14"/>
+    <sheet name="SFRCost" sheetId="17" r:id="rId15"/>
+    <sheet name="SR" sheetId="18" r:id="rId16"/>
+    <sheet name="SRCost" sheetId="21" r:id="rId17"/>
+    <sheet name="NSR" sheetId="19" r:id="rId18"/>
+    <sheet name="NSRCost" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="376">
   <si>
     <t>uid</t>
   </si>
@@ -799,39 +802,12 @@
     <t>R30</t>
   </si>
   <si>
-    <t>1, 1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.005, 1.005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.01, 1.01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.015, 1.015</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.02, 1.02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.025, 1.025</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>td1</t>
   </si>
   <si>
     <t>td2</t>
   </si>
   <si>
-    <t>1.005, 1.005</t>
-  </si>
-  <si>
     <t>EDT1</t>
   </si>
   <si>
@@ -917,6 +893,279 @@
   </si>
   <si>
     <t>SFR2</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>StaticGen</t>
+  </si>
+  <si>
+    <t>Load factor in EDTSlot and UCTSlot sourced from ISO-NE day-ahead cleared hourly load on 2022 June 29</t>
+  </si>
+  <si>
+    <t>Minimum on/off time of generators were made up</t>
+  </si>
+  <si>
+    <t>0.641, 0</t>
+  </si>
+  <si>
+    <t>0.634, 0</t>
+  </si>
+  <si>
+    <t>0.623, 0</t>
+  </si>
+  <si>
+    <t>0.615, 0</t>
+  </si>
+  <si>
+    <t>0.62, 0</t>
+  </si>
+  <si>
+    <t>EDT7</t>
+  </si>
+  <si>
+    <t>0.665, 0</t>
+  </si>
+  <si>
+    <t>EDT8</t>
+  </si>
+  <si>
+    <t>0.713, 0</t>
+  </si>
+  <si>
+    <t>EDT9</t>
+  </si>
+  <si>
+    <t>0.728, 0</t>
+  </si>
+  <si>
+    <t>EDT10</t>
+  </si>
+  <si>
+    <t>0.746, 0</t>
+  </si>
+  <si>
+    <t>EDT11</t>
+  </si>
+  <si>
+    <t>0.776, 0</t>
+  </si>
+  <si>
+    <t>EDT12</t>
+  </si>
+  <si>
+    <t>0.808, 0</t>
+  </si>
+  <si>
+    <t>EDT13</t>
+  </si>
+  <si>
+    <t>0.835, 0</t>
+  </si>
+  <si>
+    <t>EDT14</t>
+  </si>
+  <si>
+    <t>0.86, 0</t>
+  </si>
+  <si>
+    <t>EDT15</t>
+  </si>
+  <si>
+    <t>0.879, 0</t>
+  </si>
+  <si>
+    <t>EDT16</t>
+  </si>
+  <si>
+    <t>0.922, 0</t>
+  </si>
+  <si>
+    <t>EDT17</t>
+  </si>
+  <si>
+    <t>0.954, 0</t>
+  </si>
+  <si>
+    <t>EDT18</t>
+  </si>
+  <si>
+    <t>0.996, 0</t>
+  </si>
+  <si>
+    <t>EDT19</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>EDT20</t>
+  </si>
+  <si>
+    <t>0.986, 0</t>
+  </si>
+  <si>
+    <t>EDT21</t>
+  </si>
+  <si>
+    <t>0.949, 0</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>EDT22</t>
+  </si>
+  <si>
+    <t>0.901, 0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>EDT23</t>
+  </si>
+  <si>
+    <t>0.823, 0</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>EDT24</t>
+  </si>
+  <si>
+    <t>0.737, 0</t>
+  </si>
+  <si>
+    <t>UCT7</t>
+  </si>
+  <si>
+    <t>UCT8</t>
+  </si>
+  <si>
+    <t>UCT9</t>
+  </si>
+  <si>
+    <t>UCT10</t>
+  </si>
+  <si>
+    <t>UCT11</t>
+  </si>
+  <si>
+    <t>UCT12</t>
+  </si>
+  <si>
+    <t>UCT13</t>
+  </si>
+  <si>
+    <t>UCT14</t>
+  </si>
+  <si>
+    <t>UCT15</t>
+  </si>
+  <si>
+    <t>UCT16</t>
+  </si>
+  <si>
+    <t>UCT17</t>
+  </si>
+  <si>
+    <t>UCT18</t>
+  </si>
+  <si>
+    <t>UCT19</t>
+  </si>
+  <si>
+    <t>UCT20</t>
+  </si>
+  <si>
+    <t>UCT21</t>
+  </si>
+  <si>
+    <t>UCT22</t>
+  </si>
+  <si>
+    <t>UCT23</t>
+  </si>
+  <si>
+    <t>UCT24</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>Dcost_1</t>
+  </si>
+  <si>
+    <t>Dcost_2</t>
+  </si>
+  <si>
+    <t>Dcost_3</t>
+  </si>
+  <si>
+    <t>Dcost_4</t>
+  </si>
+  <si>
+    <t>Dcost_5</t>
+  </si>
+  <si>
+    <t>Dcost_6</t>
+  </si>
+  <si>
+    <t>Dcost_7</t>
+  </si>
+  <si>
+    <t>Dcost_8</t>
+  </si>
+  <si>
+    <t>Dcost_9</t>
+  </si>
+  <si>
+    <t>Dcost_10</t>
+  </si>
+  <si>
+    <t>Dcost_11</t>
+  </si>
+  <si>
+    <t>csr</t>
+  </si>
+  <si>
+    <t>SRC_1</t>
+  </si>
+  <si>
+    <t>SRC_2</t>
+  </si>
+  <si>
+    <t>SRC_3</t>
+  </si>
+  <si>
+    <t>SRC_4</t>
+  </si>
+  <si>
+    <t>SRC_5</t>
+  </si>
+  <si>
+    <t>cnsr</t>
+  </si>
+  <si>
+    <t>NSRC_1</t>
+  </si>
+  <si>
+    <t>NSRC_2</t>
+  </si>
+  <si>
+    <t>NSRC_3</t>
+  </si>
+  <si>
+    <t>NSRC_4</t>
+  </si>
+  <si>
+    <t>NSRC_5</t>
   </si>
 </sst>
 </file>
@@ -929,13 +1178,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,6 +1236,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1003,7 +1253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1052,45 +1302,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C580AE-BCDB-6447-87F2-91D4F169EC59}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,8 +1739,30 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1530,7 +1820,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1538,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD46B62-3884-454B-83D5-13A7DC1C4BB6}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,95 +1843,361 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="12"/>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8DE934-58E4-5047-A795-90496D563932}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J38" sqref="J38:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,90 +2209,611 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="12"/>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0AADCB-2F5C-8249-9343-310D36C297B3}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DCD101-2671-4F48-972B-11EA0EF73763}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1760,10 +2837,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
@@ -1774,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E2" s="7">
         <v>0.05</v>
@@ -1797,13 +2874,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E3" s="7">
         <v>0.05</v>
@@ -1820,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111A03E0-C10C-0D49-95E3-8985E6A9343A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1831,104 +2908,104 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>279</v>
+      <c r="D1" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1937,12 +3014,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDE885-6D53-A84E-BDCB-CAB019D9A33F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495314F4-C3CE-B943-8CDA-C158FD3E3B36}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7A23E-CBBD-454F-8F4F-269AE72EF5B7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -1972,16 +3223,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E2" s="7">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>21</v>
@@ -1992,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E3" s="7">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>43</v>
@@ -2012,74 +3263,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7A23E-CBBD-454F-8F4F-269AE72EF5B7}">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99D2AC-7148-2842-947F-C6D0CB715F06}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="7">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +4033,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
@@ -2772,7 +4047,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2841,11 +4116,11 @@
       <c r="T1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>261</v>
+      <c r="U1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -2907,10 +4182,10 @@
         <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="V2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2972,10 +4247,10 @@
         <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -3037,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -3102,14 +4377,14 @@
         <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>35</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:S1 A3:D5 A2:D2 F2:S2 F3:S5" numberStoredAsText="1"/>
@@ -3119,10 +4394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3194,11 +4469,11 @@
       <c r="U1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>261</v>
+      <c r="V1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -3262,15 +4537,27 @@
       <c r="U2" s="7">
         <v>1</v>
       </c>
-      <c r="V2" s="10">
-        <v>50</v>
-      </c>
-      <c r="W2" s="10">
-        <v>30</v>
-      </c>
+      <c r="V2" s="1">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:T1 A2:D2 F2:T2" numberStoredAsText="1"/>
@@ -3707,7 +4994,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K12" numberStoredAsText="1"/>
@@ -5163,7 +6450,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:X21" numberStoredAsText="1"/>
@@ -5276,7 +6563,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
@@ -5337,7 +6624,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
@@ -5350,7 +6637,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5530,7 +6817,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D1 G1:I1 A6:D6 A2:D2 G2:I2 A3:D3 G3:I3 A4:D4 G4:I4 A5:D5 G5:I5 G6:I6" numberStoredAsText="1"/>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE31FE1F-398B-1841-8090-1E6C624E3C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4E3B2-8822-3B48-8E02-68024744BB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -25,20 +25,19 @@
     <sheet name="Region" sheetId="10" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="13" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="14" r:id="rId12"/>
-    <sheet name="DCost" sheetId="20" r:id="rId13"/>
-    <sheet name="SFR" sheetId="16" r:id="rId14"/>
-    <sheet name="SFRCost" sheetId="17" r:id="rId15"/>
-    <sheet name="SR" sheetId="18" r:id="rId16"/>
-    <sheet name="SRCost" sheetId="21" r:id="rId17"/>
-    <sheet name="NSR" sheetId="19" r:id="rId18"/>
-    <sheet name="NSRCost" sheetId="22" r:id="rId19"/>
+    <sheet name="SFR" sheetId="16" r:id="rId13"/>
+    <sheet name="SFRCost" sheetId="17" r:id="rId14"/>
+    <sheet name="SR" sheetId="18" r:id="rId15"/>
+    <sheet name="SRCost" sheetId="21" r:id="rId16"/>
+    <sheet name="NSR" sheetId="19" r:id="rId17"/>
+    <sheet name="NSRCost" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="363">
   <si>
     <t>uid</t>
   </si>
@@ -1091,45 +1090,6 @@
   </si>
   <si>
     <t>UCT24</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>Dcost_1</t>
-  </si>
-  <si>
-    <t>Dcost_2</t>
-  </si>
-  <si>
-    <t>Dcost_3</t>
-  </si>
-  <si>
-    <t>Dcost_4</t>
-  </si>
-  <si>
-    <t>Dcost_5</t>
-  </si>
-  <si>
-    <t>Dcost_6</t>
-  </si>
-  <si>
-    <t>Dcost_7</t>
-  </si>
-  <si>
-    <t>Dcost_8</t>
-  </si>
-  <si>
-    <t>Dcost_9</t>
-  </si>
-  <si>
-    <t>Dcost_10</t>
-  </si>
-  <si>
-    <t>Dcost_11</t>
   </si>
   <si>
     <t>csr</t>
@@ -1253,7 +1213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1302,22 +1262,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1353,12 +1302,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2559,266 +2502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0AADCB-2F5C-8249-9343-310D36C297B3}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DCD101-2671-4F48-972B-11EA0EF73763}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2897,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111A03E0-C10C-0D49-95E3-8985E6A9343A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3014,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDE885-6D53-A84E-BDCB-CAB019D9A33F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3089,7 +2777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495314F4-C3CE-B943-8CDA-C158FD3E3B36}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3110,7 +2798,7 @@
         <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3118,7 +2806,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -3132,7 +2820,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -3146,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
@@ -3160,7 +2848,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
@@ -3174,7 +2862,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -3188,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7A23E-CBBD-454F-8F4F-269AE72EF5B7}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3263,11 +2951,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99D2AC-7148-2842-947F-C6D0CB715F06}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3284,7 +2972,7 @@
         <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3292,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -3306,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -3320,7 +3008,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
@@ -3334,7 +3022,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
@@ -3348,7 +3036,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4E3B2-8822-3B48-8E02-68024744BB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD785EC4-EEBD-8242-A701-29772BBE1DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="359">
   <si>
     <t>uid</t>
   </si>
@@ -306,9 +306,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>0.15</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>PV_4</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>-0.06</t>
   </si>
   <si>
@@ -354,13 +348,7 @@
     <t>PV_5</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
     <t>Slack_1</t>
-  </si>
-  <si>
-    <t>0.81442</t>
   </si>
   <si>
     <t>0.01962</t>
@@ -1655,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -1673,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1687,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1698,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1790,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1798,13 +1786,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1812,13 +1800,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1826,13 +1814,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1840,13 +1828,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1854,13 +1842,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1868,13 +1856,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1882,13 +1870,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1896,13 +1884,13 @@
         <v>44</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1910,13 +1898,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1924,13 +1912,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1938,13 +1926,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1952,13 +1940,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1966,13 +1954,13 @@
         <v>64</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1980,13 +1968,13 @@
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1994,139 +1982,139 @@
         <v>72</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,13 +2152,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,13 +2166,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2192,13 +2180,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,13 +2194,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2220,13 +2208,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,13 +2222,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2248,13 +2236,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2262,13 +2250,13 @@
         <v>44</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2276,13 +2264,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2290,13 +2278,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,13 +2292,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,13 +2306,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2332,13 +2320,13 @@
         <v>64</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,13 +2334,13 @@
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2360,139 +2348,139 @@
         <v>72</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2505,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DCD101-2671-4F48-972B-11EA0EF73763}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2525,10 +2513,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
@@ -2539,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E2" s="7">
         <v>0.05</v>
@@ -2562,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E3" s="7">
         <v>0.05</v>
@@ -2603,13 +2591,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -2634,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>87</v>
@@ -2651,10 +2639,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -2668,10 +2656,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -2685,10 +2673,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -2726,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>12</v>
@@ -2737,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E2" s="7">
         <v>0.03</v>
@@ -2757,13 +2745,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E3" s="7">
         <v>0.03</v>
@@ -2795,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2806,10 +2794,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
@@ -2820,7 +2808,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -2834,10 +2822,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
@@ -2848,10 +2836,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
@@ -2862,10 +2850,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
@@ -2900,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -2911,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E2" s="7">
         <v>0.05</v>
@@ -2931,13 +2919,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E3" s="7">
         <v>0.05</v>
@@ -2969,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2980,10 +2968,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
@@ -2994,7 +2982,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -3008,10 +2996,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
@@ -3022,10 +3010,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
@@ -3036,10 +3024,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
@@ -3054,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3359,13 +3347,13 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3403,13 +3391,13 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3447,13 +3435,13 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3491,13 +3479,13 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3535,13 +3523,13 @@
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3579,13 +3567,13 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3623,13 +3611,13 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3667,13 +3655,13 @@
         <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3711,13 +3699,13 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3713,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="N8:N15 N7 A7:L7 N4:N6 A4:L6 N3 A3:L3 N2 A2:L2 A8:L15 A1:N1" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:K7 N4:N6 A4:K6 N3 A3:K3 N2 A2:K2 A8:K15 A1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3735,7 +3723,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3802,13 +3790,13 @@
         <v>86</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -3825,7 +3813,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -3833,41 +3821,41 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J2" t="s">
         <v>89</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>90</v>
       </c>
-      <c r="K2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
         <v>92</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>93</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
         <v>95</v>
       </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>96</v>
-      </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="U2" s="1">
         <v>0.5</v>
@@ -3881,16 +3869,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3898,41 +3886,41 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J3" t="s">
         <v>89</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>90</v>
       </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
+      <c r="L3" s="1">
+        <v>0.01</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" t="s">
         <v>98</v>
       </c>
-      <c r="O3" t="s">
-        <v>99</v>
-      </c>
       <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
         <v>95</v>
       </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>96</v>
-      </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="U3" s="1">
         <v>0.5</v>
@@ -3946,16 +3934,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1">
         <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3963,41 +3951,41 @@
       <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
-        <v>101</v>
+      <c r="I4" s="1">
+        <v>0.05</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M4" t="s">
         <v>91</v>
       </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>92</v>
-      </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
       </c>
       <c r="P4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" t="s">
-        <v>95</v>
-      </c>
       <c r="R4" t="s">
         <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="U4" s="1">
         <v>0.5</v>
@@ -4011,16 +3999,16 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -4028,41 +4016,41 @@
       <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
-        <v>105</v>
+      <c r="I5" s="1">
+        <v>0.05</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M5" t="s">
         <v>91</v>
       </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" t="s">
-        <v>92</v>
-      </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
       </c>
       <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" t="s">
-        <v>95</v>
-      </c>
       <c r="R5" t="s">
         <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="U5" s="1">
         <v>0.5</v>
@@ -4075,7 +4063,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S1 A3:D5 A2:D2 F2:S2 F3:S5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 A3:D5 A2:D2 F2:H2 F5:H5 M2:S2 M3:S5 J2:K2 F3:H3 J3:K3 F4:H4 J4:K4 J5:K5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4085,7 +4073,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4155,13 +4143,13 @@
         <v>8</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -4169,16 +4157,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -4186,38 +4174,38 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>107</v>
+      <c r="I2" s="1">
+        <v>1.5</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>91</v>
+      <c r="L2" s="1">
+        <v>0.1</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" t="s">
-        <v>95</v>
-      </c>
       <c r="R2" t="s">
         <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T2" t="s">
         <v>14</v>
@@ -4248,7 +4236,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:T1 A2:D2 F2:T2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:T1 A2:D2 F2:H2 M2:T2 J2:K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4301,13 +4289,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -4316,16 +4304,16 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -4336,13 +4324,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4351,16 +4339,16 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -4371,13 +4359,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -4386,16 +4374,16 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -4406,13 +4394,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -4421,16 +4409,16 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -4441,13 +4429,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -4456,16 +4444,16 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -4476,13 +4464,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -4491,16 +4479,16 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -4511,13 +4499,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -4526,16 +4514,16 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -4546,13 +4534,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -4561,16 +4549,16 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -4581,13 +4569,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -4596,16 +4584,16 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -4616,13 +4604,13 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
@@ -4631,16 +4619,16 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
@@ -4651,13 +4639,13 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
@@ -4666,16 +4654,16 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -4714,55 +4702,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
         <v>76</v>
       </c>
       <c r="H1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>149</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>152</v>
-      </c>
-      <c r="R1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S1" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" t="s">
-        <v>156</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -4774,7 +4762,7 @@
         <v>10</v>
       </c>
       <c r="Y1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -4782,13 +4770,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -4800,7 +4788,7 @@
         <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -4809,13 +4797,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -4850,13 +4838,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -4868,7 +4856,7 @@
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -4877,13 +4865,13 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -4918,13 +4906,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -4936,7 +4924,7 @@
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -4945,13 +4933,13 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
@@ -4986,13 +4974,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -5004,7 +4992,7 @@
         <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -5013,13 +5001,13 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -5054,13 +5042,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -5072,7 +5060,7 @@
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -5081,13 +5069,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
@@ -5122,13 +5110,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -5140,7 +5128,7 @@
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -5149,13 +5137,13 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -5190,13 +5178,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -5208,7 +5196,7 @@
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -5217,10 +5205,10 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -5258,13 +5246,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -5276,7 +5264,7 @@
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -5285,10 +5273,10 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -5326,13 +5314,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -5344,7 +5332,7 @@
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
         <v>40</v>
@@ -5353,10 +5341,10 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -5394,13 +5382,13 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -5412,7 +5400,7 @@
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
@@ -5421,10 +5409,10 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -5462,13 +5450,13 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -5480,7 +5468,7 @@
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
         <v>40</v>
@@ -5492,7 +5480,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -5530,13 +5518,13 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
         <v>52</v>
@@ -5548,7 +5536,7 @@
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
@@ -5557,10 +5545,10 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -5598,13 +5586,13 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
@@ -5616,7 +5604,7 @@
         <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
@@ -5625,10 +5613,10 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -5666,13 +5654,13 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
@@ -5684,7 +5672,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
         <v>40</v>
@@ -5693,10 +5681,10 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -5734,13 +5722,13 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s">
         <v>64</v>
@@ -5752,7 +5740,7 @@
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
         <v>40</v>
@@ -5761,10 +5749,10 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -5799,16 +5787,16 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -5820,7 +5808,7 @@
         <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
         <v>40</v>
@@ -5829,10 +5817,10 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -5867,16 +5855,16 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -5888,7 +5876,7 @@
         <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -5900,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -5924,7 +5912,7 @@
         <v>15</v>
       </c>
       <c r="T18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -5935,16 +5923,16 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -5956,7 +5944,7 @@
         <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -5968,7 +5956,7 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -5992,7 +5980,7 @@
         <v>15</v>
       </c>
       <c r="T19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -6003,16 +5991,16 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -6024,7 +6012,7 @@
         <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
@@ -6036,7 +6024,7 @@
         <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -6060,7 +6048,7 @@
         <v>15</v>
       </c>
       <c r="T20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U20" t="s">
         <v>14</v>
@@ -6071,16 +6059,16 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
@@ -6092,7 +6080,7 @@
         <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -6104,7 +6092,7 @@
         <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -6128,7 +6116,7 @@
         <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U21" t="s">
         <v>14</v>
@@ -6177,13 +6165,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6191,13 +6179,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -6212,10 +6200,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -6223,13 +6211,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
@@ -6244,10 +6232,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6294,7 +6282,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6308,7 +6296,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6338,25 +6326,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>233</v>
-      </c>
-      <c r="F1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6364,10 +6352,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -6379,10 +6367,10 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -6393,7 +6381,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -6408,10 +6396,10 @@
         <v>600</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -6422,10 +6410,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -6437,10 +6425,10 @@
         <v>550</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -6451,10 +6439,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -6466,10 +6454,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -6480,10 +6468,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -6495,10 +6483,10 @@
         <v>700</v>
       </c>
       <c r="G6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD785EC4-EEBD-8242-A701-29772BBE1DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB6F52-A434-7E4C-BBC2-766957379401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="361">
   <si>
     <t>uid</t>
   </si>
@@ -1114,18 +1114,31 @@
   </si>
   <si>
     <t>NSRC_5</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1254,43 +1267,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,7 +1707,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1751,7 +1765,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1759,15 +1773,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD46B62-3884-454B-83D5-13A7DC1C4BB6}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1780,8 +1794,11 @@
       <c r="D1" s="12" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1794,8 +1811,11 @@
       <c r="D2" s="13" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1808,8 +1828,11 @@
       <c r="D3" s="13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1822,8 +1845,11 @@
       <c r="D4" s="13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1836,8 +1862,11 @@
       <c r="D5" s="13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1850,8 +1879,11 @@
       <c r="D6" s="13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1864,8 +1896,11 @@
       <c r="D7" s="13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1878,8 +1913,11 @@
       <c r="D8" s="13" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1892,8 +1930,11 @@
       <c r="D9" s="13" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1906,8 +1947,11 @@
       <c r="D10" s="13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1920,8 +1964,11 @@
       <c r="D11" s="13" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1934,8 +1981,11 @@
       <c r="D12" s="13" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1948,8 +1998,11 @@
       <c r="D13" s="13" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1962,8 +2015,11 @@
       <c r="D14" s="13" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1976,8 +2032,11 @@
       <c r="D15" s="13" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -1990,8 +2049,11 @@
       <c r="D16" s="13" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -2004,8 +2066,11 @@
       <c r="D17" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -2018,8 +2083,11 @@
       <c r="D18" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -2032,8 +2100,11 @@
       <c r="D19" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -2046,8 +2117,11 @@
       <c r="D20" s="13" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -2060,8 +2134,11 @@
       <c r="D21" s="13" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -2074,8 +2151,11 @@
       <c r="D22" s="13" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>320</v>
       </c>
@@ -2088,8 +2168,11 @@
       <c r="D23" s="13" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -2102,8 +2185,11 @@
       <c r="D24" s="13" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>326</v>
       </c>
@@ -2116,9 +2202,12 @@
       <c r="D25" s="13" t="s">
         <v>328</v>
       </c>
+      <c r="E25" s="14" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2484,7 +2573,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3042,7 +3131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -3709,7 +3798,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
@@ -4060,7 +4149,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:S1 A3:D5 A2:D2 F2:H2 F5:H5 M2:S2 M3:S5 J2:K2 F3:H3 J3:K3 F4:H4 J4:K4 J5:K5" numberStoredAsText="1"/>
@@ -4233,7 +4322,7 @@
       <c r="W5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:T1 A2:D2 F2:H2 M2:T2 J2:K2" numberStoredAsText="1"/>
@@ -4670,7 +4759,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K12" numberStoredAsText="1"/>
@@ -6126,7 +6215,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:X21" numberStoredAsText="1"/>
@@ -6239,7 +6328,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
@@ -6300,7 +6389,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
@@ -6493,7 +6582,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D1 G1:I1 A6:D6 A2:D2 G2:I2 A3:D3 G3:I3 A4:D4 G4:I4 A5:D5 G5:I5 G6:I6" numberStoredAsText="1"/>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB6F52-A434-7E4C-BBC2-766957379401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA21BD9C-D176-D84E-A415-EE5C95DBB9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="SRCost" sheetId="21" r:id="rId16"/>
     <sheet name="NSR" sheetId="19" r:id="rId17"/>
     <sheet name="NSRCost" sheetId="22" r:id="rId18"/>
+    <sheet name="DCost" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="385">
   <si>
     <t>uid</t>
   </si>
@@ -1120,13 +1121,85 @@
   </si>
   <si>
     <t>1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>DCost_4</t>
+  </si>
+  <si>
+    <t>Dcost 4</t>
+  </si>
+  <si>
+    <t>DCost_5</t>
+  </si>
+  <si>
+    <t>Dcost 5</t>
+  </si>
+  <si>
+    <t>DCost_6</t>
+  </si>
+  <si>
+    <t>Dcost 6</t>
+  </si>
+  <si>
+    <t>DCost_7</t>
+  </si>
+  <si>
+    <t>Dcost 7</t>
+  </si>
+  <si>
+    <t>DCost_8</t>
+  </si>
+  <si>
+    <t>Dcost 8</t>
+  </si>
+  <si>
+    <t>DCost_9</t>
+  </si>
+  <si>
+    <t>Dcost 9</t>
+  </si>
+  <si>
+    <t>DCost_10</t>
+  </si>
+  <si>
+    <t>Dcost 10</t>
+  </si>
+  <si>
+    <t>DCost_11</t>
+  </si>
+  <si>
+    <t>Dcost 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1205,6 +1278,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1267,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1305,6 +1385,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD46B62-3884-454B-83D5-13A7DC1C4BB6}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -3123,6 +3204,262 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4386D804-8075-7342-A0E5-1DD9FDED9548}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4334,7 +4671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA21BD9C-D176-D84E-A415-EE5C95DBB9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9774DCD-763B-2646-B84B-D62DC2047955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Shunt" sheetId="6" r:id="rId7"/>
     <sheet name="Area" sheetId="7" r:id="rId8"/>
     <sheet name="GCost" sheetId="8" r:id="rId9"/>
-    <sheet name="Region" sheetId="10" r:id="rId10"/>
+    <sheet name="Zone" sheetId="10" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="13" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="14" r:id="rId12"/>
     <sheet name="SFR" sheetId="16" r:id="rId13"/>
@@ -1797,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -3212,7 +3212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4386D804-8075-7342-A0E5-1DD9FDED9548}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee14/ieee14_uced.xlsx
+++ b/ams/cases/ieee14/ieee14_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9774DCD-763B-2646-B84B-D62DC2047955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72A96D1-5E33-1F4E-83E4-50778F467DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="385">
   <si>
     <t>uid</t>
   </si>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2664,7 +2664,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2689,7 +2689,7 @@
         <v>266</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2711,8 +2711,8 @@
       <c r="F2" s="7">
         <v>0.05</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2734,8 +2734,8 @@
       <c r="F3" s="7">
         <v>0.05</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +2865,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2887,7 +2887,7 @@
         <v>276</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2906,8 +2906,8 @@
       <c r="E2" s="7">
         <v>0.03</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
+      <c r="F2" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2926,8 +2926,8 @@
       <c r="E3" s="7">
         <v>0.03</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
+      <c r="F3" s="7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7A23E-CBBD-454F-8F4F-269AE72EF5B7}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3061,7 +3061,7 @@
         <v>276</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3080,8 +3080,8 @@
       <c r="E2" s="7">
         <v>0.05</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
+      <c r="F2" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3100,8 +3100,8 @@
       <c r="E3" s="7">
         <v>0.05</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
+      <c r="F3" s="7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6680,7 +6680,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
